--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_SANTA CRUZ.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_SANTA CRUZ.xlsx
@@ -597,64 +597,64 @@
         <v>11969</v>
       </c>
       <c r="H2" t="n">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="I2" t="n">
-        <v>1171</v>
+        <v>1232</v>
       </c>
       <c r="J2" t="n">
-        <v>4964</v>
+        <v>4852</v>
       </c>
       <c r="K2" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="M2" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N2" t="n">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R2" t="n">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="S2" t="n">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="T2" t="n">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="U2" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="V2" t="n">
-        <v>7479</v>
+        <v>7672</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>7785</v>
+        <v>7731</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AA2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
